--- a/Naive HMM Parameter Variation.xlsx
+++ b/Naive HMM Parameter Variation.xlsx
@@ -566,7 +566,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
